--- a/Psp Aplication.xlsx
+++ b/Psp Aplication.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>PSP Project PlanSummay</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>--------</t>
+  </si>
+  <si>
+    <t>------</t>
   </si>
 </sst>
 </file>
@@ -322,12 +325,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -347,16 +344,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -371,39 +362,51 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,162 +737,162 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>42281</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="4">
+      <c r="C9" s="20"/>
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="G9" s="5">
-        <f>(F9*100)/E9/100/29</f>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G37" si="0">(F9*100)/E9/100/29</f>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="4">
+      <c r="C10" s="20"/>
+      <c r="D10" s="2">
         <v>80</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>80</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>80</v>
       </c>
-      <c r="G10" s="5">
-        <f>(F10*100)/E10/100/29</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="4">
+      <c r="C11" s="29"/>
+      <c r="D11" s="2">
         <v>180</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>180</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>180</v>
       </c>
-      <c r="G11" s="5">
-        <f>(F11*100)/E11/100/29</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="4">
+      <c r="C12" s="29"/>
+      <c r="D12" s="2">
         <v>60</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="G12" s="5">
-        <f>(F12*100)/E12/100/29</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -898,36 +901,36 @@
         <v>22</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
-        <f>(F13*100)/E13/100/29</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="4">
+      <c r="C14" s="29"/>
+      <c r="D14" s="2">
         <v>60</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>60</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>60</v>
       </c>
-      <c r="G14" s="5">
-        <f>(F14*100)/E14/100/29</f>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -936,36 +939,36 @@
         <v>21</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>70</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>70</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>70</v>
       </c>
-      <c r="G15" s="5">
-        <f>(F15*100)/E15/100/29</f>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="4">
+      <c r="C16" s="29"/>
+      <c r="D16" s="2">
         <v>90</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>90</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>90</v>
       </c>
-      <c r="G16" s="5">
-        <f>(F16*100)/E16/100/29</f>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -974,58 +977,58 @@
         <v>25</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>45</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>40</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>20</v>
       </c>
-      <c r="G17" s="5">
-        <f>(F17*100)/E17/100/29</f>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="4">
+      <c r="C18" s="29"/>
+      <c r="D18" s="2">
         <v>40</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>40</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>40</v>
       </c>
-      <c r="G18" s="5">
-        <f>(F18*100)/E18/100/29</f>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="4">
+      <c r="C19" s="29"/>
+      <c r="D19" s="2">
         <v>60</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>60</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>60</v>
       </c>
-      <c r="G19" s="5">
-        <f>(F19*100)/E19/100/29</f>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -1034,55 +1037,55 @@
         <v>33</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>25</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>25</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>25</v>
       </c>
-      <c r="G20" s="5">
-        <f>(F20*100)/E20/100/29</f>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="4">
+      <c r="C21" s="29"/>
+      <c r="D21" s="2">
         <v>30</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>30</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>30</v>
       </c>
-      <c r="G21" s="5">
-        <f>(F21*100)/E21/100/29</f>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4">
+      <c r="C22" s="29"/>
+      <c r="D22" s="2">
         <v>60</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>60</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>60</v>
       </c>
-      <c r="G22" s="6">
-        <f>(F22*100)/E22/100/29</f>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -1091,276 +1094,279 @@
         <v>35</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>25</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>25</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>25</v>
       </c>
-      <c r="G23" s="6">
-        <f>(F23*100)/E23/100/29</f>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="4">
+      <c r="C24" s="29"/>
+      <c r="D24" s="2">
         <v>30</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>30</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>30</v>
       </c>
-      <c r="G24" s="18">
-        <f>(F24*100)/E24/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="4">
+      <c r="C25" s="29"/>
+      <c r="D25" s="2">
         <v>75</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>75</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>75</v>
       </c>
-      <c r="G25" s="18">
-        <f>(F25*100)/E25/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>30</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>30</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>30</v>
       </c>
-      <c r="G26" s="18">
-        <f>(F26*100)/E26/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="4">
+      <c r="C27" s="29"/>
+      <c r="D27" s="2">
         <v>40</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>40</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>25</v>
       </c>
-      <c r="G27" s="18">
-        <f>(F27*100)/E27/100/29</f>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
         <v>2.1551724137931036E-2</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="4">
+      <c r="C28" s="29"/>
+      <c r="D28" s="2">
         <v>75</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>75</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>75</v>
       </c>
-      <c r="G28" s="18">
-        <f>(F28*100)/E28/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="17"/>
+      <c r="G28" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="25"/>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>30</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>30</v>
       </c>
-      <c r="G29" s="18">
-        <f>(F29*100)/E29/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="G29" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="4">
+      <c r="C30" s="29"/>
+      <c r="D30" s="2">
         <v>40</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>40</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>25</v>
       </c>
-      <c r="G30" s="18">
-        <f>(F30*100)/E30/100/29</f>
+      <c r="G30" s="14">
+        <f t="shared" si="0"/>
         <v>2.1551724137931036E-2</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="4">
+      <c r="C31" s="21"/>
+      <c r="D31" s="2">
         <v>80</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>65</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>65</v>
       </c>
-      <c r="G31" s="18">
-        <f>(F31*100)/E31/100/29</f>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="G31" s="14">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="4">
+      <c r="C32" s="21"/>
+      <c r="D32" s="2">
         <v>25</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>20</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>20</v>
       </c>
-      <c r="G32" s="6">
-        <f>(F32*100)/E32/100/29</f>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="4">
+      <c r="C33" s="21"/>
+      <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>5</v>
       </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-      <c r="G33" s="6">
-        <f>(F33*100)/E33/100/29</f>
-        <v>3.4482758620689655E-2</v>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="2">
         <v>25</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>25</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
-      <c r="G34" s="6">
-        <f>(F34*100)/E34/100/29</f>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="4">
+      <c r="C35" s="21"/>
+      <c r="D35" s="2">
         <v>30</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>30</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>30</v>
       </c>
-      <c r="G35" s="5">
-        <f>(F35*100)/E35/100/29</f>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
@@ -1369,116 +1375,144 @@
         <v>44</v>
       </c>
       <c r="C36" s="25"/>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>120</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>120</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="5">
-        <f>(F36*100)/E36/100/29</f>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="4">
+      <c r="C37" s="27"/>
+      <c r="D37" s="2">
         <v>120</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>120</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="5">
-        <f>(F37*100)/E37/100/29</f>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="7" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <f>SUM(G9:G37)</f>
-        <v>0.85344827586206873</v>
+        <v>0.81896551724137912</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
@@ -1489,40 +1523,12 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Psp Aplication.xlsx
+++ b/Psp Aplication.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>PSP Project PlanSummay</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Realizar el manual de usuario</t>
+  </si>
+  <si>
+    <t>Interrupción (1 Semana)</t>
+  </si>
+  <si>
+    <t>Interrupción (2 Dias)</t>
+  </si>
+  <si>
+    <t>Interrupción(3 Dias)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -271,17 +286,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -320,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,9 +335,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -349,7 +350,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,15 +360,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -377,34 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J45"/>
+  <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,28 +735,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>42281</v>
       </c>
     </row>
@@ -766,11 +764,11 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,11 +780,11 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
@@ -795,18 +793,18 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -821,10 +819,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2">
         <v>100</v>
       </c>
@@ -835,15 +833,15 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G37" si="0">(F9*100)/E9/100/29</f>
-        <v>3.4482758620689655E-2</v>
+        <f>(F9*100)/E9/100/35</f>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2">
         <v>80</v>
       </c>
@@ -854,15 +852,15 @@
         <v>80</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
+        <f t="shared" ref="G10:G43" si="0">(F10*100)/E10/100/35</f>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2">
         <v>180</v>
       </c>
@@ -874,14 +872,14 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2">
         <v>60</v>
       </c>
@@ -893,270 +891,264 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2">
+        <v>10080</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10080</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10080</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="2">
+      <c r="C14" s="19"/>
+      <c r="D14" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="2">
+      <c r="C15" s="20"/>
+      <c r="D15" s="2">
         <v>60</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>60</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>60</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="2">
+      <c r="C16" s="19"/>
+      <c r="D16" s="2">
         <v>70</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>70</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>70</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="2">
+      <c r="C17" s="20"/>
+      <c r="D17" s="2">
         <v>90</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>90</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>90</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="2">
+      <c r="C18" s="19"/>
+      <c r="D18" s="2">
         <v>45</v>
-      </c>
-      <c r="E17" s="2">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="2">
-        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>40</v>
       </c>
       <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2">
         <v>40</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="E19" s="2">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="2">
+      <c r="C20" s="20"/>
+      <c r="D20" s="2">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>60</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>60</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="2">
+      <c r="C21" s="19"/>
+      <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>25</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>25</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="2">
+      <c r="C22" s="20"/>
+      <c r="D22" s="2">
         <v>30</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>30</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>30</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="2">
+      <c r="C23" s="20"/>
+      <c r="D23" s="2">
         <v>60</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>60</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>60</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="2">
         <v>25</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>25</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>25</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="2">
+        <v>2880</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2880</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2800</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="2">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2">
-        <v>30</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="2">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2">
-        <v>75</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="2">
         <v>30</v>
       </c>
@@ -1166,220 +1158,223 @@
       <c r="F26" s="2">
         <v>30</v>
       </c>
-      <c r="G26" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="2">
+      <c r="C29" s="20"/>
+      <c r="D29" s="2">
         <v>40</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>40</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>25</v>
       </c>
-      <c r="G27" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1551724137931036E-2</v>
-      </c>
-      <c r="H27" s="23" t="s">
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="2">
+      <c r="C30" s="20"/>
+      <c r="D30" s="2">
         <v>75</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>75</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>75</v>
       </c>
-      <c r="G28" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="2">
+      <c r="C31" s="19"/>
+      <c r="D31" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="2">
         <v>30</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="2">
         <v>30</v>
       </c>
-      <c r="G29" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="2">
+      <c r="C32" s="20"/>
+      <c r="D32" s="2">
         <v>40</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <v>40</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F32" s="2">
         <v>25</v>
       </c>
-      <c r="G30" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1551724137931036E-2</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="2">
+        <v>4320</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4320</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="2">
+      <c r="C34" s="28"/>
+      <c r="D34" s="2">
         <v>80</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E34" s="2">
         <v>65</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F34" s="2">
         <v>65</v>
       </c>
-      <c r="G31" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="2">
+      <c r="C35" s="28"/>
+      <c r="D35" s="2">
         <v>25</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E35" s="2">
         <v>20</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F35" s="2">
         <v>20</v>
       </c>
-      <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="2">
+      <c r="C36" s="28"/>
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E36" s="2">
         <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="2">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2">
-        <v>25</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="2">
-        <v>30</v>
-      </c>
-      <c r="E35" s="2">
-        <v>30</v>
-      </c>
-      <c r="F35" s="2">
-        <v>30</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2">
-        <v>120</v>
-      </c>
-      <c r="E36" s="2">
-        <v>120</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -1388,20 +1383,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="27"/>
+      <c r="H36" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="28"/>
       <c r="D37" s="2">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -1410,125 +1405,253 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="2">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30</v>
+      </c>
+      <c r="F38" s="2">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="2">
+        <v>4320</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4320</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="2">
+        <v>120</v>
+      </c>
+      <c r="E40" s="2">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2">
+        <v>120</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="2">
+        <v>10080</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10080</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10080</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="2">
+        <v>240</v>
+      </c>
+      <c r="E42" s="2">
+        <v>180</v>
+      </c>
+      <c r="F42" s="2">
+        <v>180</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2">
+        <v>120</v>
+      </c>
+      <c r="E43" s="2">
+        <v>120</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="5" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="6">
-        <f>SUM(G9:G37)</f>
-        <v>0.81896551724137912</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="G44" s="5">
+        <f>SUM(G9:G43)</f>
+        <v>0.8777777777777781</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="50">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
